--- a/processed_data/codebook.xlsx
+++ b/processed_data/codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Doutorado\2025\democracy_cbi\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D13DB1-935F-40D1-9F61-13D83DA5678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F46B95-306E-4C77-8B39-C2CD41337E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
   <si>
     <t>variable</t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>Funke, Schularick, Trebesch (2023)</t>
+  </si>
+  <si>
+    <t>Independent country according to Gleditsch/Ward (1999)</t>
+  </si>
+  <si>
+    <t>Populist government</t>
+  </si>
+  <si>
+    <t>Right-wing populist government</t>
+  </si>
+  <si>
+    <t>Left-wing populist government</t>
   </si>
 </sst>
 </file>
@@ -698,7 +710,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,6 +1079,9 @@
       <c r="A27" t="s">
         <v>76</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
@@ -1074,10 +1089,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>109</v>
       </c>
@@ -1085,10 +1103,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
@@ -1096,9 +1117,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>109</v>
@@ -1121,7 +1145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -1135,7 +1159,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1163,7 +1187,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1177,7 +1201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1191,7 +1215,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1219,7 +1243,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -1233,7 +1257,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -1247,7 +1271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -1261,7 +1285,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>91</v>
       </c>
